--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3677299.017871095</v>
+        <v>3679059.548173882</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="F2" t="n">
-        <v>103.949528813693</v>
+        <v>103.9495288136927</v>
       </c>
       <c r="G2" t="n">
         <v>12.83561175645086</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587336</v>
+        <v>115.3620237587338</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46.40435801043382</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072391</v>
+        <v>18.20026557072403</v>
       </c>
       <c r="S3" t="n">
-        <v>28.08697364565285</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>235.2898559575943</v>
+        <v>235.2898559575929</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>212.5689651179051</v>
+        <v>237.9688518868388</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>263.7138800015061</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.16188515252987</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>161.5012252220224</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>74.68741221032337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>74.68741221032427</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576155</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>71.99884436925691</v>
+        <v>5.623597659135752</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>151.855586233358</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>192.9183958257884</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>1.799772605716084</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>241.7859926947193</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>153.5899618586515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>71.60395572454149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>200.4120083539607</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="C2" t="n">
-        <v>788.02971404953</v>
+        <v>788.029714049529</v>
       </c>
       <c r="D2" t="n">
-        <v>521.803459303067</v>
+        <v>521.8034593030666</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5772045566042</v>
+        <v>255.577204556604</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5776805023688</v>
+        <v>150.577680502369</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6124161019134</v>
+        <v>137.6124161019135</v>
       </c>
       <c r="H2" t="n">
-        <v>137.6124161019134</v>
+        <v>137.6124161019135</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701156</v>
+        <v>50.19026732551829</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164427</v>
+        <v>142.990686534949</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780752</v>
+        <v>295.019574396581</v>
       </c>
       <c r="M2" t="n">
-        <v>494.810121698885</v>
+        <v>495.8504424173902</v>
       </c>
       <c r="N2" t="n">
-        <v>703.5044515053127</v>
+        <v>704.5447722238173</v>
       </c>
       <c r="O2" t="n">
-        <v>887.2333280196087</v>
+        <v>888.2736487381128</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266322</v>
+        <v>1010.580993266321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5381486570469</v>
+        <v>216.8926179365992</v>
       </c>
       <c r="C3" t="n">
-        <v>21.08511937591986</v>
+        <v>216.8926179365992</v>
       </c>
       <c r="D3" t="n">
-        <v>21.08511937591986</v>
+        <v>67.95820827534794</v>
       </c>
       <c r="E3" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9487307741788</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K3" t="n">
-        <v>192.5098291378336</v>
+        <v>95.6462177395744</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539661</v>
+        <v>242.2253570557065</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168091</v>
+        <v>432.6331671185491</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516412</v>
+        <v>642.4891502533808</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271665</v>
+        <v>812.2465809289057</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280452</v>
+        <v>929.1588188821913</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158898</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="S3" t="n">
-        <v>1007.501181708744</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="T3" t="n">
-        <v>1007.501181708744</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="U3" t="n">
-        <v>779.3652846476016</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="V3" t="n">
-        <v>779.3652846476016</v>
+        <v>800.719753927154</v>
       </c>
       <c r="W3" t="n">
-        <v>779.3652846476016</v>
+        <v>800.719753927154</v>
       </c>
       <c r="X3" t="n">
-        <v>571.5137844420688</v>
+        <v>592.8682537216212</v>
       </c>
       <c r="Y3" t="n">
-        <v>363.7534856771149</v>
+        <v>385.1079549566672</v>
       </c>
     </row>
     <row r="4">
@@ -4476,52 +4476,52 @@
         <v>167.9750668738302</v>
       </c>
       <c r="F4" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953614</v>
+        <v>126.3272391953611</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735304</v>
+        <v>316.5273535735301</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559553</v>
+        <v>527.4558292559548</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568295</v>
+        <v>738.8035136568288</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005252</v>
+        <v>918.0010123005242</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485828</v>
+        <v>1047.814747485826</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="V4" t="n">
         <v>816.5894476267057</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4570,13 +4570,13 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243022</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243022</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571243</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
         <v>529.4746963267547</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.2175042777675</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C7" t="n">
-        <v>476.2813213498606</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>326.1646819375248</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>178.2515883551317</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>31.36164085722137</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>31.36164085722137</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>31.36164085722137</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>31.36164085722137</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>684.9359346872203</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.8659691080072</v>
+        <v>684.9359346872203</v>
       </c>
     </row>
     <row r="8">
@@ -4801,16 +4801,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,16 +4831,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2362.198290411147</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2362.198290411147</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2362.198290411147</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
         <v>2362.198290411147</v>
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5190,55 +5190,55 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
         <v>1138.603793935964</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687904</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>904.461687384549</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.840175011101</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
         <v>484.8112968429803</v>
@@ -5670,16 +5670,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5974,52 +5974,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.0424953278208</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>740.6909601580605</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,31 +7186,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7839,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1842.070412183399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1587.385923977512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.05082900859297</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.050829008590483</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518632</v>
+        <v>60.60994937518652</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.9658985047753</v>
+        <v>2.123866789362424</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.84203171541408</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>231.2582814363241</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.41728121624972e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-3.940996767551754e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>153.7108110197802</v>
+        <v>220.0860577299014</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>65.54986409393027</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>59.21924749803958</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>44.73700564187172</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>180.5336875992865</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>85.7724660352834</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>667604.6042320899</v>
+        <v>667604.6042320901</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321529</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653036.6073321527</v>
+        <v>653036.6073321528</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710693</v>
@@ -26322,40 +26322,40 @@
         <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055063</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163134</v>
+        <v>679693.2761163125</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389950667</v>
+        <v>373.9475389960052</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059434</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491481</v>
+        <v>68959.93717491478</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395574115</v>
+        <v>38.57632395577041</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756983</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077611</v>
+        <v>246846.0156077613</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426732042</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.31242673194</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731961</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26459,7 +26459,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360378</v>
+        <v>63030.89693360374</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209580.5072866087</v>
+        <v>-209580.5072866081</v>
       </c>
       <c r="C6" t="n">
-        <v>469814.0632295766</v>
+        <v>469814.0632295757</v>
       </c>
       <c r="D6" t="n">
-        <v>161605.5448634175</v>
+        <v>161605.5448634176</v>
       </c>
       <c r="E6" t="n">
-        <v>149716.6065759635</v>
+        <v>150029.2479048848</v>
       </c>
       <c r="F6" t="n">
-        <v>657202.0482005097</v>
+        <v>657514.6895294311</v>
       </c>
       <c r="G6" t="n">
-        <v>657202.0482005101</v>
+        <v>657514.6895294314</v>
       </c>
       <c r="H6" t="n">
-        <v>657202.0482005101</v>
+        <v>657514.6895294314</v>
       </c>
       <c r="I6" t="n">
-        <v>657202.0482005097</v>
+        <v>657514.6895294314</v>
       </c>
       <c r="J6" t="n">
-        <v>588242.1110255949</v>
+        <v>588554.7523545162</v>
       </c>
       <c r="K6" t="n">
-        <v>657163.471876554</v>
+        <v>657476.1132054755</v>
       </c>
       <c r="L6" t="n">
-        <v>561819.4020629402</v>
+        <v>562132.0433918616</v>
       </c>
       <c r="M6" t="n">
-        <v>524594.7544715828</v>
+        <v>524907.3958005047</v>
       </c>
       <c r="N6" t="n">
-        <v>657202.04820051</v>
+        <v>657514.6895294314</v>
       </c>
       <c r="O6" t="n">
-        <v>657202.0482005097</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="P6" t="n">
-        <v>657202.0482005095</v>
+        <v>657514.6895294311</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726924</v>
+        <v>613.6975324726916</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726924</v>
+        <v>613.6975324726916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967858634</v>
+        <v>0.3574812967867729</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025079193</v>
+        <v>0.1498878025082604</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025074646</v>
+        <v>0.1498878025075783</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985331</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025079193</v>
+        <v>0.1498878025082604</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.7088995720093</v>
+        <v>101.7088995720097</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11904942168474</v>
+        <v>91.11904942168508</v>
       </c>
       <c r="E2" t="n">
-        <v>118.3663778732636</v>
+        <v>118.3663778732639</v>
       </c>
       <c r="F2" t="n">
-        <v>302.9265169280185</v>
+        <v>302.9265169280187</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602293</v>
+        <v>152.8004413602294</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.2407224449671</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928072</v>
+        <v>99.48674643928074</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225814</v>
+        <v>43.94827785225819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>119.077244156092</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
         <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27560,7 +27560,7 @@
         <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404772</v>
+        <v>15.11777503404782</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704492</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
         <v>204.7303985328714</v>
@@ -27596,7 +27596,7 @@
         <v>286.2586656647723</v>
       </c>
       <c r="V4" t="n">
-        <v>16.84778736623369</v>
+        <v>16.84778736623505</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27672,16 +27672,16 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>115.1832933522298</v>
+        <v>89.78340658329614</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>4.910313946352222</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>64.20843016701477</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>131.9707727699104</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>274.5535565070887</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684189</v>
+        <v>2.467125758684185</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612445</v>
+        <v>25.26645167612442</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167227</v>
+        <v>95.11386581167216</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611224</v>
+        <v>209.3942148611221</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262241</v>
+        <v>313.8276482262237</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635554</v>
+        <v>389.3309481635549</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745554</v>
+        <v>433.2056958745548</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364168</v>
+        <v>440.2154169364163</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735009</v>
+        <v>415.6829351735004</v>
       </c>
       <c r="P2" t="n">
-        <v>354.775768005985</v>
+        <v>354.7757680059845</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731073</v>
+        <v>266.421826773107</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389458</v>
+        <v>154.9755884389456</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601601</v>
+        <v>56.21962822601594</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864004</v>
+        <v>10.79984300864003</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947351</v>
+        <v>0.1973700606947348</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752584</v>
+        <v>1.320028654752582</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721574</v>
+        <v>12.74869779721573</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915694</v>
+        <v>45.44835499915688</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773044</v>
+        <v>124.7137598773043</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457275</v>
+        <v>213.1556797457272</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628363</v>
+        <v>286.6141164628359</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976173</v>
+        <v>334.4651551976169</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235678</v>
+        <v>343.3174526235674</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419447</v>
+        <v>314.0683966419443</v>
       </c>
       <c r="P3" t="n">
-        <v>252.067577064114</v>
+        <v>252.0675770641137</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592947</v>
+        <v>168.5004998592945</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191922</v>
+        <v>81.95756858191911</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209293</v>
+        <v>24.5189533020929</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550982</v>
+        <v>5.320641814550975</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424897</v>
+        <v>0.08684399044424884</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508134</v>
+        <v>1.106667681508132</v>
       </c>
       <c r="H4" t="n">
-        <v>9.83928175013596</v>
+        <v>9.839281750135946</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753552</v>
+        <v>33.28051536753548</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262505</v>
+        <v>78.24140508262495</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606722</v>
+        <v>128.5746633606721</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944002</v>
+        <v>164.5313023944</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840431</v>
+        <v>173.4751893840429</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166039</v>
+        <v>169.3503371166037</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735316</v>
+        <v>156.4224464735313</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707655</v>
+        <v>133.8464257707653</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337655</v>
+        <v>92.66832740337642</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672026</v>
+        <v>49.75980320672019</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410083</v>
+        <v>19.28619950410081</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625661</v>
+        <v>4.728489184625655</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862555</v>
+        <v>0.06036369171862547</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256881</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>303.402437346477</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443606</v>
+        <v>29.39913934302875</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124354</v>
+        <v>93.73779718124314</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935682</v>
+        <v>153.5645331935677</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472826</v>
+        <v>202.8594626472821</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398259</v>
+        <v>210.8023533398253</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518142</v>
+        <v>185.5847237518136</v>
       </c>
       <c r="P2" t="n">
-        <v>124.5936012593059</v>
+        <v>123.542772250715</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865786</v>
+        <v>44.11613689865752</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.84203171541303</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136853</v>
+        <v>75.31424077136825</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829621</v>
+        <v>148.0597366829617</v>
       </c>
       <c r="M3" t="n">
-        <v>192.331121275599</v>
+        <v>192.3311212755985</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402345</v>
+        <v>211.9757405402341</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975003</v>
+        <v>171.4721521974999</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497838</v>
+        <v>118.0931696497834</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327322</v>
+        <v>126.3607574886871</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347894</v>
+        <v>106.3051715347892</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547163</v>
+        <v>192.1213276547161</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458837</v>
+        <v>213.0590663458835</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958325</v>
+        <v>213.4825094958323</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875712</v>
+        <v>181.007574387571</v>
       </c>
       <c r="P4" t="n">
-        <v>131.124985035659</v>
+        <v>131.1249850356588</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682166</v>
+        <v>6.506284151682038</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>622.455381029198</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.560998372118</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924756</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
